--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416302.508488687</v>
+        <v>4416302.508488688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1313367.953433792</v>
+        <v>1221397.615449374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051491</v>
+        <v>682213.8818051489</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>134.1822917056463</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>124.0524456467803</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>68.22769775781612</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>127.0559180302858</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>286.809269038669</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.10494780290184</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>67.24036028042096</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.5426751592141</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>20.92041677519551</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>236.7139500600953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274094</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>164.3675597136134</v>
       </c>
       <c r="U13" t="n">
-        <v>146.378928772071</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975608</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>77.15499641828697</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,16 +1901,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.0041688483413</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.5975477744942</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.0556349746128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>80.83119524461006</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>29.18937547121108</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>33.35146980185879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.5471874873689</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789601</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789601</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287482</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857203</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329113</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857203</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463186</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4031,7 +4031,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>29.84409370098938</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.77945773664956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.372931623164</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1161.664171370009</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>750.6782665804014</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>332.7144584785883</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.3850306156796</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>516.422513675268</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>516.422513675268</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>516.422513675268</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>509.4770129260645</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>262.3791120239298</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>93.44292909602288</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>93.44292909602288</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602288</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602288</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602288</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>660.2094283676252</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>660.2094283676252</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>660.2094283676252</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>660.2094283676252</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>370.7922583306645</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>370.7922583306645</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1387.880623680825</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.880623680825</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>706.9972500900751</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>706.9972500900751</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>706.9972500900751</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,16 +5063,16 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.2333460701</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>754.998473976564</v>
+        <v>1168.415554794898</v>
       </c>
       <c r="M12" t="n">
-        <v>754.998473976564</v>
+        <v>1488.7508743246</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1332.888432463344</v>
       </c>
       <c r="U13" t="n">
-        <v>1016.198248099061</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>761.5137598931742</v>
+        <v>789.0753054710159</v>
       </c>
       <c r="W13" t="n">
-        <v>472.0965898562135</v>
+        <v>499.6581354340554</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340554</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905254</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>388.8958536704856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.264000062947</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N15" t="n">
-        <v>1961.675578327098</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O15" t="n">
-        <v>2317.834075963124</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>441.9005583181204</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>441.9005583181204</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>392.020132540589</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1309.906827303276</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1309.906827303276</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.778188516834</v>
+        <v>986.0022165609677</v>
       </c>
       <c r="V16" t="n">
-        <v>766.0937003109476</v>
+        <v>731.3177283550809</v>
       </c>
       <c r="W16" t="n">
-        <v>766.0937003109476</v>
+        <v>441.9005583181204</v>
       </c>
       <c r="X16" t="n">
-        <v>766.0937003109476</v>
+        <v>441.9005583181204</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.0937003109476</v>
+        <v>441.9005583181204</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>2760.904484504767</v>
+        <v>768.9531471704122</v>
       </c>
       <c r="M18" t="n">
-        <v>3081.239804034469</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N18" t="n">
-        <v>3885.651382298619</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>4555.115143601279</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601279</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>985.4001231459592</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>816.4639402180525</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>666.3473008057169</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>518.4342072233239</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>518.4342072233239</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>350.2588855431447</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>199.8408770910881</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188992</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819385</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819385</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.2415044384084</v>
+        <v>1167.048587976199</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>661.315258782963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>661.315258782963</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N21" t="n">
-        <v>1465.726837047114</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.190598349773</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383442</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>447.0175521403269</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0175521403269</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0657286834809</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>601.2230060733181</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>921.5583256030199</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>1772.261907751252</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2021.015321835214</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>674.4285624571609</v>
+        <v>978.5259858465388</v>
       </c>
       <c r="M27" t="n">
-        <v>1442.796708849623</v>
+        <v>1298.861305376241</v>
       </c>
       <c r="N27" t="n">
-        <v>2247.208287113773</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O27" t="n">
-        <v>2554.178946862809</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954967</v>
+        <v>678.2225136306378</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954967</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954967</v>
+        <v>859.8709784608775</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6467,13 +6467,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>173.9133974437784</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>403.8765033121275</v>
+        <v>991.5411720962788</v>
       </c>
       <c r="M30" t="n">
-        <v>724.2118228418293</v>
+        <v>1298.861305376241</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>3481.79397174047</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>3381.677879852604</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>3300.381331480309</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>3221.288328937957</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>3143.218472480088</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>3043.863241839949</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427934</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>2919.550824089922</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782176</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.020063255132</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494606</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746024</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813792</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571752</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.5343174013</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654899</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489053</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492134</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>3746.594833634158</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>3594.622345530669</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623457</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>359.7015465322561</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.069692924718</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,22 +6932,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>721.5398184181049</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M39" t="n">
-        <v>1139.068153712028</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1943.479731976179</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7309,13 +7309,13 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>99.68474098764057</v>
+        <v>347.3617042845969</v>
       </c>
       <c r="L42" t="n">
-        <v>713.5818107445292</v>
+        <v>577.324810152946</v>
       </c>
       <c r="M42" t="n">
-        <v>713.5818107445292</v>
+        <v>897.6601296826478</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,34 +7546,34 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7628,13 +7628,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7658,25 +7658,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1479.482307609636</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>557.490562163493</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7834,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013836</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>157.6003821033663</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>249.719054981084</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.45454075504944</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>251.3996538332145</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>91.30520149835667</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>103.4608943868694</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.91140957870084</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>27.70767124276637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>71.05806235621606</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,13 +10674,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>303.1409873357509</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M39" t="n">
-        <v>35.74187379338008</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>14.14674423479681</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.18000134477572</v>
       </c>
       <c r="U13" t="n">
-        <v>139.8584236265064</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>99.23385149845613</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S16" t="n">
-        <v>120.7658135653163</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.82781133359596</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>8.821697689777594</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7763452073245389</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>140.7163658137792</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>192.3581855871782</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>133.895351296769</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.16246790166828</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>118.771379317223</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="10">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642828</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
       </c>
       <c r="K2" t="n">
         <v>821041.7698642844</v>
@@ -26347,13 +26347,13 @@
         <v>821041.7698642844</v>
       </c>
       <c r="N2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="O2" t="n">
         <v>821041.7698642844</v>
       </c>
-      <c r="O2" t="n">
-        <v>821041.7698642848</v>
-      </c>
       <c r="P2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754174</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>54505.51210371254</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759997</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759295</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575947</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
@@ -26439,25 +26439,25 @@
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758299</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405709822</v>
+        <v>9155.673405710142</v>
       </c>
       <c r="C6" t="n">
+        <v>599123.5526202547</v>
+      </c>
+      <c r="D6" t="n">
         <v>599123.5526202546</v>
       </c>
-      <c r="D6" t="n">
-        <v>599123.5526202543</v>
-      </c>
       <c r="E6" t="n">
-        <v>164122.9633592291</v>
+        <v>164122.9633592287</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361251</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361255</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361252</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435325</v>
+        <v>512859.7806435321</v>
       </c>
       <c r="K6" t="n">
         <v>645614.5710086501</v>
@@ -26552,16 +26552,16 @@
         <v>700120.0831123627</v>
       </c>
       <c r="M6" t="n">
-        <v>565319.0678785254</v>
+        <v>565319.0678785255</v>
       </c>
       <c r="N6" t="n">
+        <v>700120.0831123625</v>
+      </c>
+      <c r="O6" t="n">
         <v>700120.0831123627</v>
       </c>
-      <c r="O6" t="n">
-        <v>700120.083112363</v>
-      </c>
       <c r="P6" t="n">
-        <v>689282.9998361256</v>
+        <v>689282.9998361249</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>220.5007499150366</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>199.8703271175768</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>218.2953005787749</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>286.7282519905092</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>82.92183163980002</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>117.0659410388933</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>144.9051786695979</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>176.1884255192549</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>8.202333179718799</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>49.80904827649567</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6339569561809</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31850,10 +31850,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>108.4899833859234</v>
+        <v>171.3135836203297</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32318,25 +32318,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>278.2340885751665</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32549,31 +32549,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>225.9628574215824</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32713,7 +32713,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565519</v>
@@ -32789,19 +32789,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,7 +32810,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33029,25 +33029,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33263,25 +33263,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>173.4022761643943</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33433,7 +33433,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>253.1147543959453</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>239.2136969488969</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33521,7 +33521,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33740,13 +33740,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>312.2325423535598</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33758,7 +33758,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33989,10 +33989,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34208,13 +34208,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>140.3340142545152</v>
+        <v>84.1373490920364</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34226,13 +34226,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34445,10 +34445,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34457,10 +34457,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>388.4604782700163</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34469,7 +34469,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>373.2577549944005</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>498.9767599371083</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>359.7560582182085</v>
+        <v>422.5796584526148</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556566</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>262.7122457110738</v>
+        <v>510.5200540987515</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556566</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>112.8452740533403</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>573.9635196818026</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>340.562906454381</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>310.5543093183941</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36677,22 +36677,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>307.1691145347252</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>310.0713734838745</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>35.56083719003527</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>320.3157673122404</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>114.5603746160711</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>107.8719848655636</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>173.6781625736857</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>585.5046895768591</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M39" t="n">
-        <v>346.1662508438464</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>2.492575280156257</v>
+        <v>210.761147130256</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081138</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>324.5711212852631</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>639.7265531023014</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416302.508488688</v>
+        <v>4487954.301048734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1221397.615449374</v>
+        <v>334274.0806428115</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051489</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6961766.03358869</v>
+        <v>6866658.509440956</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.1389890634198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>124.0524456467803</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>286.809269038669</v>
+        <v>126.2362799889259</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.10494780290184</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.67217496231269</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.92041677519551</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.764863467406521</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274094</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>164.3675597136134</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.38162151975608</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>170.2201007724208</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,16 +1903,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>101.5975477744942</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>112.7555103292997</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>125.5347253921233</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>80.83119524461006</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>171.546109942406</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.5688286778357</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>127.5471874873689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>78.36384008888471</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>49.42788049869295</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>131.6868736977291</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>173.0377625555526</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>75.46137625926976</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>29.84409370098938</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>215.8833550539569</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1547.452423968253</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="C2" t="n">
-        <v>1547.452423968253</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D2" t="n">
-        <v>1547.452423968253</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E2" t="n">
-        <v>1161.664171370009</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F2" t="n">
-        <v>750.6782665804014</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>332.7144584785883</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>722.2873163082929</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239298</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="C7" t="n">
-        <v>93.44292909602288</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D7" t="n">
-        <v>93.44292909602288</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>93.44292909602288</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>93.44292909602288</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>93.44292909602288</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>533.621179645333</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1352.258819987541</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1352.258819987541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1352.258819987541</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>966.4705673892963</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>555.4846625996888</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1738.858660051662</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1738.858660051662</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>706.9972500900751</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>706.9972500900751</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>706.9972500900751</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>479.6890627586768</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>245.4549451025299</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.5914466506041</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,7 +5074,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1168.415554794898</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1488.7508743246</v>
+        <v>1019.893908186785</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5197,16 +5199,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.888432463344</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1043.759793676903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>789.0753054710159</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340554</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340554</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1547.929689730967</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.9005583181204</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>441.9005583181204</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>392.020132540589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581961</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609677</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550809</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181204</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181204</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9005583181204</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,7 +5500,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5513,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>768.9531471704122</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.288466700114</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>1814.179973500514</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2334.480595236261</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.4001231459592</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="C19" t="n">
-        <v>816.4639402180525</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="D19" t="n">
-        <v>666.3473008057169</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="E19" t="n">
-        <v>518.4342072233239</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="F19" t="n">
-        <v>518.4342072233239</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G19" t="n">
-        <v>350.2588855431447</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>199.8408770910881</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471197</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119729</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119729</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119729</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119729</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119729</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119729</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.048587976199</v>
+        <v>3867.997941244695</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5768,31 +5770,31 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>779.5615433385055</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527474</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337732</v>
+        <v>1444.417518505825</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2113.881279808485</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>840.6429075085875</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>690.5262680962518</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.6131745138587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.193495155475</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5987,22 +5989,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N24" t="n">
-        <v>1772.261907751252</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O24" t="n">
-        <v>2021.015321835214</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.301679312539</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.9805482336712</v>
+        <v>3946.383537937098</v>
       </c>
       <c r="C25" t="n">
-        <v>241.9805482336712</v>
+        <v>3777.447355009191</v>
       </c>
       <c r="D25" t="n">
-        <v>241.9805482336712</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E25" t="n">
-        <v>241.9805482336712</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336712</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336712</v>
+        <v>3946.383537937098</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>978.5259858465388</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1298.861305376241</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N27" t="n">
-        <v>2103.272883640391</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.2225136306378</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C28" t="n">
-        <v>509.2863307027309</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.371999166149</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.371999166149</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="X28" t="n">
-        <v>1080.663557604408</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="Y28" t="n">
-        <v>859.8709784608775</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>991.5411720962788</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="M30" t="n">
-        <v>1298.861305376241</v>
+        <v>1180.97612420717</v>
       </c>
       <c r="N30" t="n">
-        <v>2103.272883640391</v>
+        <v>1525.496779844787</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.79397174047</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852604</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480309</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937957</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480088</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782176</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255132</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490132</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746024</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979765</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813792</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571752</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.5343174013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654899</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489053</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492134</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634158</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530669</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126482</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.90644000511</v>
+        <v>4127.653644092304</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>4127.653644092304</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4376.407058176266</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1448.989118539021</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1249.069108454573</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1249.069108454573</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1249.069108454573</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>253.7007023605332</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.513823643587</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
         <v>1808.163466324677</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>488.658674475369</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>488.658674475369</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018223</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1990.324165399617</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>3907.60313536346</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>3907.60313536346</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4486.148944186863</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>4197.020305400421</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>4197.020305400421</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>3907.60313536346</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>3907.60313536346</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>3907.60313536346</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>153.325674671538</v>
       </c>
       <c r="K42" t="n">
-        <v>347.3617042845969</v>
+        <v>564.2159435160506</v>
       </c>
       <c r="L42" t="n">
-        <v>577.324810152946</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="M42" t="n">
-        <v>897.6601296826478</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.071707946799</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>3797.331606129885</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>3797.331606129885</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>3797.331606129885</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>3947.44824554222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.490562163493</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>557.490562163493</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7840,16 +7842,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.92115703528</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X46" t="n">
-        <v>959.9316061372629</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.1390269937327</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>249.719054981084</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>327.4089701965363</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>103.4608943868694</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>57.91140957870084</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>71.05806235621606</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>282.2475091472896</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>116.1540744796866</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>303.1409873357509</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>14.14674423479681</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>469.4054134828309</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.18000134477572</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>99.23385149845613</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>48.36455257967401</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>8.821697689777594</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>105.8291430227951</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>19.8863226308079</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7163658137792</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>2.105225817279774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>47.0385434096888</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>2.351981305767566</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>98.16246790166828</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.25163292932764</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.53647190509984</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.55994740089875</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>48.50979850283662</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>91.03219220410783</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>118.771379317223</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.701298298137914</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065636</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754181</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="N2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642843</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642844</v>
-      </c>
       <c r="P2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759997</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759295</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.793690575947</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.793690575917</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189634</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758661</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710142</v>
+        <v>9155.673405710171</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
         <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592287</v>
+        <v>164122.963359229</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="G6" t="n">
         <v>689282.9998361253</v>
       </c>
       <c r="H6" t="n">
+        <v>689282.9998361252</v>
+      </c>
+      <c r="I6" t="n">
+        <v>689282.9998361254</v>
+      </c>
+      <c r="J6" t="n">
+        <v>512859.7806435326</v>
+      </c>
+      <c r="K6" t="n">
+        <v>689282.9998361254</v>
+      </c>
+      <c r="L6" t="n">
         <v>689282.9998361253</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>554481.9846022882</v>
+      </c>
+      <c r="N6" t="n">
+        <v>689282.9998361252</v>
+      </c>
+      <c r="O6" t="n">
         <v>689282.9998361253</v>
       </c>
-      <c r="J6" t="n">
-        <v>512859.7806435321</v>
-      </c>
-      <c r="K6" t="n">
-        <v>645614.5710086501</v>
-      </c>
-      <c r="L6" t="n">
-        <v>700120.0831123627</v>
-      </c>
-      <c r="M6" t="n">
-        <v>565319.0678785255</v>
-      </c>
-      <c r="N6" t="n">
-        <v>700120.0831123625</v>
-      </c>
-      <c r="O6" t="n">
-        <v>700120.0831123627</v>
-      </c>
       <c r="P6" t="n">
-        <v>689282.9998361249</v>
+        <v>689282.9998361253</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>275.5948526000608</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>199.8703271175768</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.94594161440349</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>82.92183163980002</v>
+        <v>243.4948206895431</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>117.0659410388933</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>19.58281243452868</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.1119950584823</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.202333179718799</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>208.8197898846883</v>
       </c>
     </row>
     <row r="11">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>162.451812657641</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653214</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653333</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31859,10 +31861,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32077,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>221.9209067672838</v>
       </c>
       <c r="O15" t="n">
-        <v>171.3135836203297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32101,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2340885751665</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>211.1801409386339</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32548,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>225.9628574215824</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>21.52456418311994</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32807,16 +32809,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>218.0578460103733</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32958,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540886</v>
@@ -33029,25 +33031,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>331.1308614851326</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33266,25 +33268,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>244.3331184388061</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33433,7 +33435,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
@@ -33497,31 +33499,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>239.2136969488969</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33740,16 +33742,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,7 +33760,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33974,7 +33976,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,19 +33985,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>300.3666903387234</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34147,13 +34149,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34208,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>57.42192790328021</v>
       </c>
       <c r="K42" t="n">
-        <v>84.1373490920364</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>498.9767599371083</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>185.274936274518</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>569.921569027504</v>
       </c>
       <c r="O15" t="n">
-        <v>422.5796584526148</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35747,7 +35749,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>510.5200540987515</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>573.9635196818026</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>206.0129254087269</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
@@ -36452,10 +36454,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>310.5543093183941</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>288.1533596602009</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36677,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>307.1691145347252</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>515.6192227107396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>320.3157673122404</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>495.5991932710912</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>107.8719848655636</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>489.3409240788143</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>158.0642534345933</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>585.5046895768591</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768305</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>551.6327651710085</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>56.67533657702235</v>
       </c>
       <c r="K42" t="n">
-        <v>210.761147130256</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>324.5711212852631</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>338.0637013994976</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4487954.301048734</v>
+        <v>4480937.286157024</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334274.0806428115</v>
+        <v>591572.3907055078</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.1389890634198</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>237.1298127151663</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>50.09791697323107</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>321.0668506657013</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>126.2362799889259</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>122.5935461816079</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>20.67217496231269</v>
+        <v>401.3550844723781</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.764863467406521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274087</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.2201007724208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.7555103292997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5347253921233</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>112.9041675380129</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.546109942406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.5688286778357</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>78.36384008888471</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.42788049869295</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>88.864942788249</v>
       </c>
       <c r="C37" t="n">
-        <v>131.6868736977291</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>49.14757544257668</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>173.0377625555526</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.46137625926976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>58.42247119226039</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.8833550539569</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.0661152341315</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341315</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341315</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358873</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545184</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082929</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065018</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2646.545134479606</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2432.256711297768</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380754</v>
+        <v>2204.94852396637</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>378.2529319877395</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.901079302655</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1731.901079302655</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150932</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150932</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>177.7748466502715</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.258819987541</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.258819987541</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.258819987541</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E8" t="n">
-        <v>966.4705673892963</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>555.4846625996888</v>
+        <v>786.546878019087</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312742</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312742</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051662</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.858660051662</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036443</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005472</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005472</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025299</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,22 +5032,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.893908186785</v>
+        <v>1567.123890985307</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824403</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>779.5615433385053</v>
+        <v>1239.074732711013</v>
       </c>
       <c r="M15" t="n">
-        <v>1547.929689730967</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="N15" t="n">
-        <v>2112.152043068196</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2360.905457152158</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5597,25 +5597,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>1220.905903778934</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1565.426559416552</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1814.179973500514</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2334.480595236261</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4525.994054365623</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>4271.309566159736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>3981.892396122776</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>3981.892396122776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>779.5615433385055</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1099.896862868207</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1444.417518505825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2113.881279808485</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>840.6429075085875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>690.5262680962518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>542.6131745138587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.579090436494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.726987855212</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N24" t="n">
-        <v>1569.24764349283</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.001057576792</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.301679312539</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3946.383537937098</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>3777.447355009191</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U25" t="n">
-        <v>4637.069157803799</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V25" t="n">
-        <v>4637.069157803799</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.651987766838</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X25" t="n">
-        <v>4119.662436868821</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>3946.383537937098</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6256,19 +6256,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N27" t="n">
-        <v>1569.24764349283</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.001057576792</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1301.371999166149</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1301.371999166149</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1012.243360379707</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1012.243360379707</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1012.243360379707</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>784.2538094816899</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1180.97612420717</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1525.496779844787</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>492.4609007520348</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>492.4609007520348</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W31" t="n">
-        <v>720.4504516500522</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>492.4609007520348</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>492.4609007520348</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805465</v>
@@ -6700,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942954</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L33" t="n">
-        <v>3359.285497699842</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>4127.653644092304</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>4127.653644092304</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>4376.407058176266</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1448.989118539021</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1249.069108454573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.069108454573</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1249.069108454573</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>994.3846202486859</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>994.3846202486859</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805471</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>253.7007023605332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>664.5909712050459</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>894.5540770733951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.889396603097</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
         <v>1808.163466324677</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>488.658674475369</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188992</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>709.4512536188992</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>709.4512536188992</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>488.658674475369</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>877.4353633695368</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1645.803509761998</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1990.324165399617</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3907.60313536346</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>3907.60313536346</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>3757.486495951125</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4486.148944186863</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4197.020305400421</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4197.020305400421</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>3907.60313536346</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>3907.60313536346</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y40" t="n">
-        <v>3907.60313536346</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>153.325674671538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>564.2159435160506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.1790493843997</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>794.1790493843997</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N42" t="n">
         <v>1138.699705022018</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3947.44824554222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3947.44824554222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3797.331606129885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3797.331606129885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3797.331606129885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4236.865415579181</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>3947.44824554222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3947.44824554222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3947.44824554222</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>904.3916683255102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1224.726987855212</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N45" t="n">
-        <v>1559.410052240715</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7794,16 +7794,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924328</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X46" t="n">
-        <v>643.8194987924328</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.7555037884359</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4089701965363</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>282.2475091472896</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>116.1540744796866</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N45" t="n">
-        <v>469.4054134828309</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>48.84084321165255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.36455257967401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.8291430227951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>19.8863226308079</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>108.6433935203763</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.0385434096888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>2.351981305767566</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>70.25163292932764</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53647190509984</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>90.9670373936883</v>
       </c>
       <c r="C37" t="n">
-        <v>35.55994740089875</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>48.50979850283662</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>91.03219220410783</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>227.814881206317</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.701298298137914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586543.5896065636</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.119475418</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
@@ -26334,25 +26334,25 @@
         <v>782058.1194754179</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="N2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.119475418</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754178</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575917</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758661</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710171</v>
+        <v>9155.673405709997</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202546</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="D6" t="n">
         <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.963359229</v>
+        <v>163148.3720995075</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764039</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764039</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764037</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435326</v>
+        <v>511885.1893838106</v>
       </c>
       <c r="K6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="L6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="M6" t="n">
-        <v>554481.9846022882</v>
+        <v>553507.3933425663</v>
       </c>
       <c r="N6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="O6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764039</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764036</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.5948526000608</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>132.6012879633028</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.94594161440349</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>96.56727500692676</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>92.71731935509371</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>243.4948206895431</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>22.82750184132331</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>19.58281243452868</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.1119950584823</v>
+        <v>12.42908554841694</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.8197898846883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>162.451812657641</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653214</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653333</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>126.0445872665838</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>338.0637013994975</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>221.9209067672838</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.1801409386339</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.52456418311994</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32800,16 +32800,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.0578460103733</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32958,7 +32958,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540886</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
         <v>76.0697047810465</v>
@@ -33025,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33037,13 +33037,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>331.1308614851326</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33189,7 +33189,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565519</v>
@@ -33262,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>244.3331184388061</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33286,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33499,10 +33499,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33511,19 +33511,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33736,10 +33736,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33748,10 +33748,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33760,7 +33760,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33973,28 +33973,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>300.3666903387234</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>57.42192790328021</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34459,25 +34459,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>185.274936274518</v>
+        <v>449.6156170945654</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>570.3496669230825</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>569.921569027504</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.2756545884615</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>206.0129254087269</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>288.1533596602009</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>515.6192227107396</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221117</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>495.5991932710912</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37159,13 +37159,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>489.3409240788143</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>158.0642534345933</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>551.6327651710085</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>56.67533657702235</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N45" t="n">
-        <v>338.0637013994976</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4480937.286157024</v>
+        <v>4485876.549006056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>591572.3907055078</v>
+        <v>618206.5946377302</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>237.1298127151663</v>
+        <v>237.1298127151653</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.09791697323107</v>
+        <v>50.09791697323016</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>122.5935461816079</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274087</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>158.4251234088481</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>155.8385935972308</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>112.9041675380129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>175.0698676614148</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.864942788249</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>40.6853861755107</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.14757544257668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>195.0964805515241</v>
       </c>
     </row>
     <row r="41">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>58.42247119226039</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,28 +4348,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
         <v>1422.958510780817</v>
@@ -4400,22 +4400,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4430,25 +4430,25 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
         <v>1364.473611002105</v>
@@ -4488,28 +4488,28 @@
         <v>2068.619613065018</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L4" t="n">
         <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
         <v>2646.545134479606</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326646</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>177.7748466502715</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>798.7557445928459</v>
       </c>
       <c r="M12" t="n">
         <v>1567.123890985307</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.503549752619</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.513998854602</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1239.074732711013</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1559.410052240715</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5597,7 +5597,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L18" t="n">
         <v>1050.793780719526</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5940,19 +5940,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5989,22 +5989,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6077,7 +6077,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N24" t="n">
         <v>1128.069692924718</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.951646798694</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>895.8230080122524</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>895.8230080122524</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6256,19 +6256,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
         <v>436.8967109626374</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
         <v>334.288126757867</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,7 +7180,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7198,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,10 +7250,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9020,7 +9020,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.821697689779711</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>130.6844047393602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>108.6433935203763</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>77.06777566241323</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.9670373936883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>245.8376121610803</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>23.48817280057068</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>227.814881206317</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754178</v>
@@ -26349,13 +26349,13 @@
         <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="O2" t="n">
         <v>782058.119475418</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26441,7 +26441,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759093</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405709997</v>
+        <v>9155.6734057102</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202545</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
         <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>163148.3720995075</v>
+        <v>164025.504233257</v>
       </c>
       <c r="F6" t="n">
-        <v>688308.4085764039</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="G6" t="n">
-        <v>688308.4085764039</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="H6" t="n">
-        <v>688308.4085764037</v>
+        <v>689185.5407101534</v>
       </c>
       <c r="I6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="J6" t="n">
-        <v>511885.1893838106</v>
+        <v>512762.3215175602</v>
       </c>
       <c r="K6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="L6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="M6" t="n">
-        <v>553507.3933425663</v>
+        <v>554384.525476316</v>
       </c>
       <c r="N6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101529</v>
       </c>
       <c r="O6" t="n">
-        <v>688308.4085764039</v>
+        <v>689185.5407101534</v>
       </c>
       <c r="P6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>132.6012879633028</v>
+        <v>132.6012879633037</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>96.56727500692676</v>
+        <v>96.5672750069277</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.82750184132331</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>61.29826102999823</v>
       </c>
       <c r="M12" t="n">
-        <v>126.0445872665838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>338.0637013994975</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>190.7803055390157</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,16 +32317,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>224.6051223555648</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33900,7 +33900,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565519</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>293.5842265535832</v>
       </c>
       <c r="M12" t="n">
-        <v>449.6156170945654</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>570.3496669230825</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>514.3513353669973</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>572.6057846157851</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700521</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37548,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
